--- a/medicine/Pharmacie/1836_en_santé_et_médecine/1836_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1836_en_santé_et_médecine/1836_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1836_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1836_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1836 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1836_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1836_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>13 octobre : Theodor Fliedner inaugure à Kaiserswerth une communauté de diaconesses gérant un hôpital et un centre de formation d’infirmières[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>13 octobre : Theodor Fliedner inaugure à Kaiserswerth une communauté de diaconesses gérant un hôpital et un centre de formation d’infirmières.
 6 novembre : Charles X meurt du choléra à 79 ans.</t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1836_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1836_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean-Nicolas Gannal reçoit le prix Montyon pour la seconde fois.
-Médaille Copley : Francis Kiernan (1800-1874), pour ses découvertes relatives à la structure du foie[2].</t>
+Médaille Copley : Francis Kiernan (1800-1874), pour ses découvertes relatives à la structure du foie.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1836_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1836_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,12 +589,14 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>3 avril :
 Ferdinand Monoyer (mort en 1912), physicien et ophtalmologiste français, inventeur de l'échelle Monoyer.
 Maurice Krishaber (mort en 1883), oto-rhino-laryngologiste hongrois.
-20 août : Richard Hughes (mort en 1902), homéopathe britannique, éditeur du British Journal of Homeopathy[3].
+20 août : Richard Hughes (mort en 1902), homéopathe britannique, éditeur du British Journal of Homeopathy.
 28 décembre : Gottlieb Burckhardt (mort en 1907), psychiatre suisse.</t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1836_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1836_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ L. J. Reboul-Deneyrol, Paupérisme et bienfaisance dans le Bas-Rhin, Veuve Berger-Levrault, 1858 (présentation en ligne)
